--- a/test_data/information/test.xlsx
+++ b/test_data/information/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="buy" sheetId="1" state="visible" r:id="rId1"/>
@@ -349,8 +349,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -736,7 +736,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{"market_type": "1", "market": "BTC", "token": "ETH", "type": "3", "price": "0.01", "amount": "1", "api_key": "c8863ec11ee3d908ae40fc98a98f4804", "sign": "qa"}</t>
+          <t>{"market_type": "1", "market": "BTC", "token": "ETH", "type": "3", "price": "0.01", "amount": "${amount}", "api_key": "c8863ec11ee3d908ae40fc98a98f4804", "sign": "qa"}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1008,7 +1008,7 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1019,7 +1019,7 @@
     <col width="122.5" customWidth="1" min="5" max="5"/>
     <col width="31.9140625" customWidth="1" min="6" max="6"/>
     <col width="14.83203125" customWidth="1" min="8" max="8"/>
-    <col width="75.33203125" customWidth="1" min="9" max="9"/>
+    <col width="21.6640625" customWidth="1" min="9" max="9"/>
     <col width="74.6640625" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '操作成功', 'data': {'id': 1333, 'status': 1, 'order_no': '2020022411372899263268651919', 'type': 1, 'market_type': '1', 'account_id_from': 2910995, 'account_id_to': 2910996, 'org_id': 10, 'user_id': 6865, 'market': 'USDT', 'token': 'ETH', 'price': '1', 'amount': '1', 'volume': '1', 'matched_amount': '0', 'matched_volume': '0', 'device': 'Unknown', 'created_at': '2020-02-24 11:37:28', 'updated_at': '2020-02-24 11:37:28'}}</t>
+          <t>{'code': 28130, 'msg': '可用余额不足', 'data': []}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1167,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '操作成功', 'data': []}</t>
+          <t>{'code': 32005, 'msg': '订单已被处理', 'data': []}</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '操作成功', 'data': {'id': 1333, 'status': 0, 'order_no': '2020022411372899263268651919', 'type': 1, 'market_type': 1, 'account_id_from': 2910995, 'account_id_to': 2910996, 'org_id': 10, 'user_id': 6865, 'market': 'USDT', 'token': 'ETH', 'price': '1', 'amount': '1', 'volume': '1', 'matched_amount': '0', 'matched_volume': '0', 'device': 'Unknown', 'created_at': '2020-02-24 11:37:28', 'updated_at': '2020-02-24 11:37:32', 'unmatched_amount': '1', 'avg_price': '0', 'market_as': 'USDT', 'token_as': 'ETH'}}</t>
+          <t>{'code': 0, 'msg': '操作成功', 'data': {'id': 1333, 'status': 0, 'type': 1, 'market_type': 1, 'order_no': '2020022411372899263268651919', 'account_id_from': 2910995, 'account_id_to': 2910996, 'user_id': 6865, 'org_id': 10, 'market': 'USDT', 'token': 'ETH', 'price': '1', 'amount': '1', 'volume': '1', 'matched_amount': '0', 'matched_volume': '0', 'device': 'Unknown', 'created_at': '2020-02-24 11:37:28', 'updated_at': '2020-02-24 11:37:32', 'version': 0, 'is_new': 0, 'unmatched_amount': '1', 'avg_price': '0', 'market_as': 'USDT', 'token_as': 'ETH'}}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">

--- a/test_data/information/test.xlsx
+++ b/test_data/information/test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="buy" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="remove" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="init" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="dumps" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="buy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="remove" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dumps" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -765,9 +765,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -951,8 +951,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{'code': 28130, 'msg': '可用余额不足', 'data': []}</t>
+          <t>{'code': 0, 'msg': '操作成功', 'data': {'id': 1344, 'status': 1, 'order_no': '2020032906190511044068651935', 'type': 1, 'market_type': '1', 'account_id_from': 3634460, 'account_id_to': 3634461, 'org_id': 10, 'user_id': 6865, 'market': 'USDT', 'token': 'ETH', 'price': '1', 'amount': '1', 'volume': '1', 'matched_amount': '0', 'matched_volume': '0', 'device': 'Unknown', 'created_at': '2020-03-29 06:19:05', 'updated_at': '2020-03-29 06:19:05'}}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1167,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{'code': 32005, 'msg': '订单已被处理', 'data': []}</t>
+          <t>{'code': 0, 'msg': '操作成功', 'data': []}</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{'code': 0, 'msg': '操作成功', 'data': {'id': 1333, 'status': 0, 'type': 1, 'market_type': 1, 'order_no': '2020022411372899263268651919', 'account_id_from': 2910995, 'account_id_to': 2910996, 'user_id': 6865, 'org_id': 10, 'market': 'USDT', 'token': 'ETH', 'price': '1', 'amount': '1', 'volume': '1', 'matched_amount': '0', 'matched_volume': '0', 'device': 'Unknown', 'created_at': '2020-02-24 11:37:28', 'updated_at': '2020-02-24 11:37:32', 'version': 0, 'is_new': 0, 'unmatched_amount': '1', 'avg_price': '0', 'market_as': 'USDT', 'token_as': 'ETH'}}</t>
+          <t>{'code': 0, 'msg': '操作成功', 'data': {'id': 1344, 'status': 1, 'order_no': '2020032906190511044068651935', 'type': 1, 'market_type': '1', 'account_id_from': 3634460, 'account_id_to': 3634461, 'org_id': 10, 'user_id': 6865, 'market': 'USDT', 'token': 'ETH', 'price': '1', 'amount': '1', 'volume': '1', 'matched_amount': '0', 'matched_volume': '0', 'device': 'Unknown', 'created_at': '2020-03-29 06:19:05', 'updated_at': '2020-03-29 06:19:05', 'unmatched_amount': '1', 'avg_price': '0', 'market_as': 'USDT', 'token_as': 'ETH'}}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1226,9 +1226,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" display="http://api.bcex.cloud/api_market/placeOrder    " r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" display="http://api.bcex.cloud/api_market/placeOrder    " r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
